--- a/Benchmark-Models/Fujita_SciSignal2010/General_info.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/General_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>Model:</t>
   </si>
@@ -92,7 +92,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>log10(init_AKT)</t>
+    <t>log10(init_Akt)</t>
   </si>
   <si>
     <t>log10(init_EGFR)</t>
@@ -225,12 +225,6 @@
   </si>
   <si>
     <t>EGF_conc_ramp</t>
-  </si>
-  <si>
-    <t>init_Akt</t>
-  </si>
-  <si>
-    <t>init_AKT</t>
   </si>
   <si>
     <t>init_EGF_EGFR</t>
@@ -422,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-105.68783842765282</v>
+        <v>-106.18451315388376</v>
       </c>
     </row>
     <row r="8">
@@ -430,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761.5452284250239</v>
+        <v>761.0485536987921</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.8386921664738014</v>
+        <v>-2.8298514029057222</v>
       </c>
       <c r="C2" t="n">
         <v>-8.0</v>
@@ -561,7 +555,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.4779690812843076</v>
+        <v>-1.5697487613470136</v>
       </c>
       <c r="C3" t="n">
         <v>-8.0</v>
@@ -581,7 +575,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>7.355083652726491</v>
+        <v>7.57444976997831</v>
       </c>
       <c r="C4" t="n">
         <v>-8.0</v>
@@ -601,7 +595,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>2.313578325540559</v>
+        <v>2.27430370307951</v>
       </c>
       <c r="C5" t="n">
         <v>-8.0</v>
@@ -621,7 +615,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.4290538515251106</v>
+        <v>-2.432883473648647</v>
       </c>
       <c r="C6" t="n">
         <v>-8.0</v>
@@ -641,7 +635,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.580523632892372</v>
+        <v>-2.6380502610804153</v>
       </c>
       <c r="C7" t="n">
         <v>-8.0</v>
@@ -661,7 +655,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.9861682084096737</v>
+        <v>-3.0284918434873465</v>
       </c>
       <c r="C8" t="n">
         <v>-8.0</v>
@@ -681,7 +675,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>4.617730803594947</v>
+        <v>4.785082050342623</v>
       </c>
       <c r="C9" t="n">
         <v>-8.0</v>
@@ -701,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3421407976510375</v>
+        <v>-0.36328643782798814</v>
       </c>
       <c r="C10" t="n">
         <v>-8.0</v>
@@ -721,7 +715,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.5112421026778442</v>
+        <v>-1.5206381119413808</v>
       </c>
       <c r="C11" t="n">
         <v>-8.0</v>
@@ -741,7 +735,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.528067445478953</v>
+        <v>-5.485039659360157</v>
       </c>
       <c r="C12" t="n">
         <v>-8.0</v>
@@ -761,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.393558701882158</v>
+        <v>-3.3995212186301904</v>
       </c>
       <c r="C13" t="n">
         <v>-8.0</v>
@@ -781,7 +775,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.035935881854898</v>
+        <v>-5.262553144389938</v>
       </c>
       <c r="C14" t="n">
         <v>-8.0</v>
@@ -801,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.9232514709240136</v>
+        <v>-1.9279999280585278</v>
       </c>
       <c r="C15" t="n">
         <v>-8.0</v>
@@ -821,7 +815,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.02633583488939</v>
+        <v>-3.024677686513833</v>
       </c>
       <c r="C16" t="n">
         <v>-8.0</v>
@@ -841,7 +835,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5633896529984648</v>
+        <v>-1.5449906195773198</v>
       </c>
       <c r="C17" t="n">
         <v>-8.0</v>
@@ -861,7 +855,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>2.5250180299496185</v>
+        <v>1.616760082136904</v>
       </c>
       <c r="C18" t="n">
         <v>-8.0</v>
@@ -881,7 +875,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.017318062946949</v>
+        <v>-7.248116492035964</v>
       </c>
       <c r="C19" t="n">
         <v>-8.0</v>
@@ -901,7 +895,7 @@
         <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>5.580038146637491</v>
+        <v>4.894991083571914</v>
       </c>
       <c r="C20" t="n">
         <v>-8.0</v>
@@ -993,7 +987,7 @@
         <v>24.0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.91447003407075</v>
+        <v>80.6453786993453</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
@@ -1017,7 +1011,7 @@
         <v>24.0</v>
       </c>
       <c r="G5" t="n">
-        <v>126.28979876862321</v>
+        <v>127.14106647550206</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
@@ -1041,7 +1035,7 @@
         <v>24.0</v>
       </c>
       <c r="G6" t="n">
-        <v>126.67481016163555</v>
+        <v>126.53449526326622</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
@@ -1065,7 +1059,7 @@
         <v>24.0</v>
       </c>
       <c r="G7" t="n">
-        <v>127.92594639617012</v>
+        <v>128.32769125144378</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
@@ -1089,7 +1083,7 @@
         <v>24.0</v>
       </c>
       <c r="G8" t="n">
-        <v>154.2159916052814</v>
+        <v>154.67127930921424</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
@@ -1113,7 +1107,7 @@
         <v>24.0</v>
       </c>
       <c r="G9" t="n">
-        <v>144.52421145924245</v>
+        <v>143.7286427000209</v>
       </c>
       <c r="H9" t="s">
         <v>63</v>
@@ -1198,7 +1192,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1209,7 +1203,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1237,7 +1231,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -1251,7 +1245,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -1265,7 +1259,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -1279,10 +1273,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1332,20 +1326,6 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1362,7 +1342,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1"/>
     </row>
@@ -1372,80 +1352,80 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark-Models/Fujita_SciSignal2010/General_info.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/General_info.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Errors are assumed as additive Gaussian errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Log-likelihood value of the model is </t>
+    <t xml:space="preserve">2*Log-likelihood value of the model is </t>
   </si>
   <si>
     <t xml:space="preserve">Chi2 value of the model is </t>
@@ -435,7 +435,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
